--- a/Faza1.xlsx
+++ b/Faza1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-SYSTEMS\Desktop\Fiek\Viti2\Semestri 3\Bazat e te dhenave\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-SYSTEMS\Desktop\Fiek\Viti2\Semestri 3\Bazat e te dhenave\Projekti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A1A0A1-F04E-43B1-A807-8E3AB3E22B76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C657611F-71AB-4E3E-B9DA-7ED5F9F6FA5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7830" yWindow="2985" windowWidth="19560" windowHeight="11505" xr2:uid="{BB24531B-C80D-485B-B866-C966F7BC44FC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="143">
   <si>
     <t>Tavolina</t>
   </si>
@@ -426,9 +426,6 @@
     <t>Data e Skadimit</t>
   </si>
   <si>
-    <t>Id</t>
-  </si>
-  <si>
     <t>Furnizuesi</t>
   </si>
   <si>
@@ -451,6 +448,12 @@
   </si>
   <si>
     <t>Telefoni</t>
+  </si>
+  <si>
+    <t>Primary Key</t>
+  </si>
+  <si>
+    <t>Foreign Key</t>
   </si>
 </sst>
 </file>
@@ -466,7 +469,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -521,8 +524,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -530,43 +545,68 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -881,10 +921,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F675F12-FA4E-4281-8696-67C23DE608BF}">
-  <dimension ref="A1:BJ12"/>
+  <dimension ref="A1:BJ16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AG22" sqref="AG22"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -927,1324 +967,1516 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="D1" s="9" t="s">
+      <c r="B1" s="2"/>
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="L1" s="6" t="s">
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="L1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="R1" s="10" t="s">
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="R1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Z1" s="11" t="s">
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Z1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AA1" s="11"/>
-      <c r="AB1" s="11"/>
-      <c r="AC1" s="11"/>
-      <c r="AD1" s="11"/>
-      <c r="AF1" s="7" t="s">
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="8"/>
+      <c r="AD1" s="8"/>
+      <c r="AF1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="AG1" s="7"/>
-      <c r="AH1" s="7"/>
-      <c r="AI1" s="7"/>
-      <c r="AJ1" s="7"/>
-      <c r="AL1" s="5" t="s">
+      <c r="AG1" s="9"/>
+      <c r="AH1" s="9"/>
+      <c r="AI1" s="9"/>
+      <c r="AJ1" s="9"/>
+      <c r="AL1" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="AM1" s="5"/>
-      <c r="AN1" s="5"/>
-      <c r="AO1" s="5"/>
-      <c r="AP1" s="5"/>
-      <c r="AQ1" s="5"/>
-      <c r="AS1" s="6" t="s">
+      <c r="AM1" s="10"/>
+      <c r="AN1" s="10"/>
+      <c r="AO1" s="10"/>
+      <c r="AP1" s="10"/>
+      <c r="AQ1" s="10"/>
+      <c r="AS1" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="AT1" s="6"/>
-      <c r="AU1" s="6"/>
-      <c r="AV1" s="6"/>
-      <c r="AW1" s="6"/>
-      <c r="AX1" s="6"/>
-      <c r="AY1" s="6"/>
-      <c r="AZ1" s="6"/>
-      <c r="BB1" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="BC1" s="4"/>
-      <c r="BD1" s="4"/>
-      <c r="BE1" s="3"/>
-      <c r="BF1" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="BG1" s="8"/>
-      <c r="BH1" s="8"/>
-      <c r="BI1" s="8"/>
-      <c r="BJ1" s="8"/>
+      <c r="AT1" s="5"/>
+      <c r="AU1" s="5"/>
+      <c r="AV1" s="5"/>
+      <c r="AW1" s="5"/>
+      <c r="AX1" s="5"/>
+      <c r="AY1" s="5"/>
+      <c r="AZ1" s="5"/>
+      <c r="BB1" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="BC1" s="11"/>
+      <c r="BD1" s="11"/>
+      <c r="BE1" s="1"/>
+      <c r="BF1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="BG1" s="2"/>
+      <c r="BH1" s="2"/>
+      <c r="BI1" s="2"/>
+      <c r="BJ1" s="2"/>
     </row>
     <row r="2" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="A2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="L2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O2" t="s">
-        <v>141</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="O2" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="P2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R2" t="s">
-        <v>1</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="R2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="S2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="T2" t="s">
+      <c r="T2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="U2" t="s">
+      <c r="U2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="V2" t="s">
+      <c r="V2" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="W2" t="s">
+      <c r="W2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="X2" t="s">
+      <c r="X2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Z2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA2" t="s">
+      <c r="Z2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AB2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AC2" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AD2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AF2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG2" t="s">
+      <c r="AF2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AH2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AI2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AJ2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="AL2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AM2" t="s">
+      <c r="AL2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AN2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="AO2" t="s">
+      <c r="AO2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="AP2" t="s">
+      <c r="AP2" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="AQ2" t="s">
+      <c r="AQ2" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="AS2" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT2" t="s">
+      <c r="AS2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT2" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="AU2" t="s">
+      <c r="AU2" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="AV2" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="AW2" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="AX2" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="AY2" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="AZ2" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="BB2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="BD2" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="AV2" t="s">
-        <v>136</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>131</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>132</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>128</v>
-      </c>
-      <c r="AZ2" t="s">
+      <c r="BF2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG2" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="BH2" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="BB2" t="s">
-        <v>133</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>4</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>135</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>133</v>
-      </c>
-      <c r="BG2" t="s">
+      <c r="BI2" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="BH2" t="s">
-        <v>129</v>
-      </c>
-      <c r="BI2" t="s">
+      <c r="BJ2" s="16" t="s">
         <v>139</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="14">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D3" s="14">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="3">
         <v>1150</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="3">
         <v>38349271596</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="15">
         <v>182628905</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="3">
         <v>38349867123</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="R3">
-        <v>1</v>
-      </c>
-      <c r="S3" t="s">
+      <c r="R3" s="14">
+        <v>1</v>
+      </c>
+      <c r="S3" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="T3" t="s">
+      <c r="T3" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="U3">
+      <c r="U3" s="16">
         <v>2</v>
       </c>
-      <c r="V3" s="1">
+      <c r="V3" s="17">
         <v>329205740</v>
       </c>
-      <c r="W3">
+      <c r="W3" s="16">
         <v>3</v>
       </c>
-      <c r="X3" t="b">
+      <c r="X3" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="Z3">
-        <v>1</v>
-      </c>
-      <c r="AA3">
+      <c r="Z3" s="14">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="16">
         <v>3</v>
       </c>
-      <c r="AB3">
+      <c r="AB3" s="16">
         <v>10</v>
       </c>
-      <c r="AC3">
+      <c r="AC3" s="16">
         <v>2</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AD3" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="AF3">
-        <v>1</v>
-      </c>
-      <c r="AG3" t="s">
+      <c r="AF3" s="14">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AH3" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AI3" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AJ3">
+      <c r="AJ3" s="3">
         <v>6</v>
       </c>
-      <c r="AL3">
-        <v>1</v>
-      </c>
-      <c r="AS3">
-        <v>1</v>
-      </c>
-      <c r="BB3">
-        <v>1</v>
-      </c>
-      <c r="BF3">
-        <v>1</v>
-      </c>
+      <c r="AL3" s="14">
+        <v>1</v>
+      </c>
+      <c r="AM3" s="16"/>
+      <c r="AN3" s="16"/>
+      <c r="AO3" s="16"/>
+      <c r="AP3" s="3"/>
+      <c r="AQ3" s="3"/>
+      <c r="AS3" s="14">
+        <v>1</v>
+      </c>
+      <c r="AT3" s="3"/>
+      <c r="AU3" s="16"/>
+      <c r="AV3" s="16"/>
+      <c r="AW3" s="3"/>
+      <c r="AX3" s="3"/>
+      <c r="AY3" s="3"/>
+      <c r="AZ3" s="3"/>
+      <c r="BB3" s="14">
+        <v>1</v>
+      </c>
+      <c r="BC3" s="3"/>
+      <c r="BD3" s="3"/>
+      <c r="BF3" s="14">
+        <v>1</v>
+      </c>
+      <c r="BG3" s="3"/>
+      <c r="BH3" s="3"/>
+      <c r="BI3" s="3"/>
+      <c r="BJ3" s="16"/>
     </row>
     <row r="4" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="14">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="14">
         <v>2</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="3">
         <v>500</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="3">
         <v>38349528431</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="15">
         <v>329205740</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="3">
         <v>38349312838</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P4" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="14">
         <v>2</v>
       </c>
-      <c r="S4" t="s">
+      <c r="S4" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="T4" t="s">
+      <c r="T4" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="U4">
+      <c r="U4" s="16">
         <v>8</v>
       </c>
-      <c r="V4" s="1">
+      <c r="V4" s="17">
         <v>557467478</v>
       </c>
-      <c r="W4">
+      <c r="W4" s="16">
         <v>4</v>
       </c>
-      <c r="X4" t="b">
+      <c r="X4" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="Z4">
+      <c r="Z4" s="14">
         <v>2</v>
       </c>
-      <c r="AA4">
+      <c r="AA4" s="16">
         <v>4</v>
       </c>
-      <c r="AB4">
+      <c r="AB4" s="16">
         <v>3</v>
       </c>
-      <c r="AC4">
+      <c r="AC4" s="16">
         <v>4</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AD4" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="AF4">
+      <c r="AF4" s="14">
         <v>2</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AG4" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AH4" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="AI4" t="s">
+      <c r="AI4" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AJ4">
+      <c r="AJ4" s="3">
         <v>2</v>
       </c>
-      <c r="AL4">
+      <c r="AL4" s="14">
         <v>2</v>
       </c>
-      <c r="AS4">
+      <c r="AM4" s="16"/>
+      <c r="AN4" s="16"/>
+      <c r="AO4" s="16"/>
+      <c r="AP4" s="3"/>
+      <c r="AQ4" s="3"/>
+      <c r="AS4" s="14">
         <v>2</v>
       </c>
-      <c r="BB4">
+      <c r="AT4" s="3"/>
+      <c r="AU4" s="16"/>
+      <c r="AV4" s="16"/>
+      <c r="AW4" s="3"/>
+      <c r="AX4" s="3"/>
+      <c r="AY4" s="3"/>
+      <c r="AZ4" s="3"/>
+      <c r="BB4" s="14">
         <v>2</v>
       </c>
-      <c r="BF4">
+      <c r="BC4" s="3"/>
+      <c r="BD4" s="3"/>
+      <c r="BF4" s="14">
         <v>2</v>
       </c>
+      <c r="BG4" s="3"/>
+      <c r="BH4" s="3"/>
+      <c r="BI4" s="3"/>
+      <c r="BJ4" s="16"/>
     </row>
     <row r="5" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="14">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="14">
         <v>3</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="3">
         <v>500</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="3">
         <v>38349900960</v>
       </c>
-      <c r="L5" s="1">
+      <c r="L5" s="15">
         <v>454035610</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="N5" t="s">
+      <c r="N5" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="3">
         <v>38349622172</v>
       </c>
-      <c r="P5" t="s">
+      <c r="P5" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="14">
         <v>3</v>
       </c>
-      <c r="S5" t="s">
+      <c r="S5" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="T5" t="s">
+      <c r="T5" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="U5">
+      <c r="U5" s="16">
         <v>2</v>
       </c>
-      <c r="V5" s="1">
+      <c r="V5" s="17">
         <v>402863845</v>
       </c>
-      <c r="W5">
-        <v>1</v>
-      </c>
-      <c r="X5" t="b">
+      <c r="W5" s="16">
+        <v>1</v>
+      </c>
+      <c r="X5" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="Z5">
+      <c r="Z5" s="14">
         <v>3</v>
       </c>
-      <c r="AA5">
-        <v>1</v>
-      </c>
-      <c r="AB5">
+      <c r="AA5" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="16">
         <v>4</v>
       </c>
-      <c r="AC5">
+      <c r="AC5" s="16">
         <v>5</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AD5" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="AF5">
+      <c r="AF5" s="14">
         <v>3</v>
       </c>
-      <c r="AG5" t="s">
+      <c r="AG5" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="AH5" t="s">
+      <c r="AH5" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="AI5" t="s">
+      <c r="AI5" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AJ5">
+      <c r="AJ5" s="3">
         <v>9.5</v>
       </c>
-      <c r="AL5">
+      <c r="AL5" s="14">
         <v>3</v>
       </c>
-      <c r="AS5">
+      <c r="AM5" s="16"/>
+      <c r="AN5" s="16"/>
+      <c r="AO5" s="16"/>
+      <c r="AP5" s="3"/>
+      <c r="AQ5" s="3"/>
+      <c r="AS5" s="14">
         <v>3</v>
       </c>
-      <c r="BB5">
+      <c r="AT5" s="3"/>
+      <c r="AU5" s="16"/>
+      <c r="AV5" s="16"/>
+      <c r="AW5" s="3"/>
+      <c r="AX5" s="3"/>
+      <c r="AY5" s="3"/>
+      <c r="AZ5" s="3"/>
+      <c r="BB5" s="14">
         <v>3</v>
       </c>
-      <c r="BF5">
+      <c r="BC5" s="3"/>
+      <c r="BD5" s="3"/>
+      <c r="BF5" s="14">
         <v>3</v>
       </c>
+      <c r="BG5" s="3"/>
+      <c r="BH5" s="3"/>
+      <c r="BI5" s="3"/>
+      <c r="BJ5" s="16"/>
     </row>
     <row r="6" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="14">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="14">
         <v>4</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="3">
         <v>650</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="3">
         <v>38349136737</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="15">
         <v>173157921</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="N6" t="s">
+      <c r="N6" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="3">
         <v>38349208401</v>
       </c>
-      <c r="P6" t="s">
+      <c r="P6" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="14">
         <v>4</v>
       </c>
-      <c r="S6" t="s">
+      <c r="S6" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="T6" t="s">
+      <c r="T6" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="U6">
+      <c r="U6" s="16">
         <v>8</v>
       </c>
-      <c r="V6" s="1">
+      <c r="V6" s="17">
         <v>412480259</v>
       </c>
-      <c r="W6">
+      <c r="W6" s="16">
         <v>2</v>
       </c>
-      <c r="X6" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z6">
+      <c r="X6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="14">
         <v>4</v>
       </c>
-      <c r="AA6">
+      <c r="AA6" s="16">
         <v>2</v>
       </c>
-      <c r="AB6">
+      <c r="AB6" s="16">
         <v>10</v>
       </c>
-      <c r="AC6">
-        <v>1</v>
-      </c>
-      <c r="AD6" t="s">
+      <c r="AC6" s="16">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="AF6">
+      <c r="AF6" s="14">
         <v>4</v>
       </c>
-      <c r="AG6" t="s">
+      <c r="AG6" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="AH6" t="s">
+      <c r="AH6" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="AI6" t="s">
+      <c r="AI6" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AJ6">
+      <c r="AJ6" s="3">
         <v>2</v>
       </c>
-      <c r="AL6">
+      <c r="AL6" s="14">
         <v>4</v>
       </c>
-      <c r="AS6">
+      <c r="AM6" s="16"/>
+      <c r="AN6" s="16"/>
+      <c r="AO6" s="16"/>
+      <c r="AP6" s="3"/>
+      <c r="AQ6" s="3"/>
+      <c r="AS6" s="14">
         <v>4</v>
       </c>
-      <c r="BB6">
+      <c r="AT6" s="3"/>
+      <c r="AU6" s="16"/>
+      <c r="AV6" s="16"/>
+      <c r="AW6" s="3"/>
+      <c r="AX6" s="3"/>
+      <c r="AY6" s="3"/>
+      <c r="AZ6" s="3"/>
+      <c r="BB6" s="14">
         <v>4</v>
       </c>
-      <c r="BF6">
+      <c r="BC6" s="3"/>
+      <c r="BD6" s="3"/>
+      <c r="BF6" s="14">
         <v>4</v>
       </c>
+      <c r="BG6" s="3"/>
+      <c r="BH6" s="3"/>
+      <c r="BI6" s="3"/>
+      <c r="BJ6" s="16"/>
     </row>
     <row r="7" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="14">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="14">
         <v>5</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="3">
         <v>800</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="3">
         <v>38349145741</v>
       </c>
-      <c r="L7" s="1">
+      <c r="L7" s="15">
         <v>557467478</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N7" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="3">
         <v>38349177000</v>
       </c>
-      <c r="P7" t="s">
+      <c r="P7" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="14">
         <v>5</v>
       </c>
-      <c r="S7" t="s">
+      <c r="S7" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="T7" t="s">
+      <c r="T7" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="U7">
+      <c r="U7" s="16">
         <v>8</v>
       </c>
-      <c r="V7" s="1">
+      <c r="V7" s="17">
         <v>329205740</v>
       </c>
-      <c r="W7">
+      <c r="W7" s="16">
         <v>3</v>
       </c>
-      <c r="X7" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z7">
+      <c r="X7" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="14">
         <v>5</v>
       </c>
-      <c r="AA7">
+      <c r="AA7" s="16">
         <v>3</v>
       </c>
-      <c r="AB7">
+      <c r="AB7" s="16">
         <v>4</v>
       </c>
-      <c r="AC7">
+      <c r="AC7" s="16">
         <v>2</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AD7" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="AF7">
+      <c r="AF7" s="14">
         <v>5</v>
       </c>
-      <c r="AG7" t="s">
+      <c r="AG7" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="AH7" t="s">
+      <c r="AH7" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AI7" t="s">
+      <c r="AI7" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AJ7">
+      <c r="AJ7" s="3">
         <v>14</v>
       </c>
-      <c r="AL7">
+      <c r="AL7" s="14">
         <v>5</v>
       </c>
-      <c r="AS7">
+      <c r="AM7" s="16"/>
+      <c r="AN7" s="16"/>
+      <c r="AO7" s="16"/>
+      <c r="AP7" s="3"/>
+      <c r="AQ7" s="3"/>
+      <c r="AS7" s="14">
         <v>5</v>
       </c>
-      <c r="BB7">
+      <c r="AT7" s="3"/>
+      <c r="AU7" s="16"/>
+      <c r="AV7" s="16"/>
+      <c r="AW7" s="3"/>
+      <c r="AX7" s="3"/>
+      <c r="AY7" s="3"/>
+      <c r="AZ7" s="3"/>
+      <c r="BB7" s="14">
         <v>5</v>
       </c>
-      <c r="BF7">
+      <c r="BC7" s="3"/>
+      <c r="BD7" s="3"/>
+      <c r="BF7" s="14">
         <v>5</v>
       </c>
+      <c r="BG7" s="3"/>
+      <c r="BH7" s="3"/>
+      <c r="BI7" s="3"/>
+      <c r="BJ7" s="16"/>
     </row>
     <row r="8" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="14">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="14">
         <v>6</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="3">
         <v>600</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="3">
         <v>38349772449</v>
       </c>
-      <c r="L8" s="1">
+      <c r="L8" s="15">
         <v>437644808</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="N8" t="s">
+      <c r="N8" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="3">
         <v>38349970004</v>
       </c>
-      <c r="P8" t="s">
+      <c r="P8" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="14">
         <v>6</v>
       </c>
-      <c r="S8" t="s">
+      <c r="S8" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="T8" s="2">
+      <c r="T8" s="7">
         <v>44509</v>
       </c>
-      <c r="U8">
+      <c r="U8" s="16">
         <v>2</v>
       </c>
-      <c r="V8" s="1">
+      <c r="V8" s="17">
         <v>268247245</v>
       </c>
-      <c r="W8">
+      <c r="W8" s="16">
         <v>2</v>
       </c>
-      <c r="X8" t="b">
+      <c r="X8" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="Z8">
+      <c r="Z8" s="14">
         <v>6</v>
       </c>
-      <c r="AA8">
+      <c r="AA8" s="16">
         <v>2</v>
       </c>
-      <c r="AB8">
+      <c r="AB8" s="16">
         <v>4</v>
       </c>
-      <c r="AC8">
+      <c r="AC8" s="16">
         <v>4</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AD8" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="AF8">
+      <c r="AF8" s="14">
         <v>6</v>
       </c>
-      <c r="AG8" t="s">
+      <c r="AG8" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="AH8" t="s">
+      <c r="AH8" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="AI8" t="s">
+      <c r="AI8" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AJ8">
+      <c r="AJ8" s="3">
         <v>4</v>
       </c>
-      <c r="AL8">
+      <c r="AL8" s="14">
         <v>6</v>
       </c>
-      <c r="AS8">
+      <c r="AM8" s="16"/>
+      <c r="AN8" s="16"/>
+      <c r="AO8" s="16"/>
+      <c r="AP8" s="3"/>
+      <c r="AQ8" s="3"/>
+      <c r="AS8" s="14">
         <v>6</v>
       </c>
-      <c r="BB8">
+      <c r="AT8" s="3"/>
+      <c r="AU8" s="16"/>
+      <c r="AV8" s="16"/>
+      <c r="AW8" s="3"/>
+      <c r="AX8" s="3"/>
+      <c r="AY8" s="3"/>
+      <c r="AZ8" s="3"/>
+      <c r="BB8" s="14">
         <v>6</v>
       </c>
-      <c r="BF8">
+      <c r="BC8" s="3"/>
+      <c r="BD8" s="3"/>
+      <c r="BF8" s="14">
         <v>6</v>
       </c>
+      <c r="BG8" s="3"/>
+      <c r="BH8" s="3"/>
+      <c r="BI8" s="3"/>
+      <c r="BJ8" s="16"/>
     </row>
     <row r="9" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="14">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="14">
         <v>7</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="3">
         <v>1200</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="3">
         <v>38349117298</v>
       </c>
-      <c r="L9" s="1">
+      <c r="L9" s="15">
         <v>402863845</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="N9" t="s">
+      <c r="N9" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="3">
         <v>38349775717</v>
       </c>
-      <c r="P9" t="s">
+      <c r="P9" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="R9">
+      <c r="R9" s="14">
         <v>7</v>
       </c>
-      <c r="S9" t="s">
+      <c r="S9" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="T9" t="s">
+      <c r="T9" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="U9">
+      <c r="U9" s="16">
         <v>2</v>
       </c>
-      <c r="V9" s="1">
+      <c r="V9" s="17">
         <v>557467478</v>
       </c>
-      <c r="W9">
+      <c r="W9" s="16">
         <v>3</v>
       </c>
-      <c r="X9" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z9">
+      <c r="X9" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="14">
         <v>7</v>
       </c>
-      <c r="AA9">
+      <c r="AA9" s="16">
         <v>3</v>
       </c>
-      <c r="AB9">
+      <c r="AB9" s="16">
         <v>3</v>
       </c>
-      <c r="AC9">
+      <c r="AC9" s="16">
         <v>6</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AD9" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="AF9">
+      <c r="AF9" s="14">
         <v>7</v>
       </c>
-      <c r="AG9" t="s">
+      <c r="AG9" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="AH9" t="s">
+      <c r="AH9" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="AI9" t="s">
+      <c r="AI9" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AJ9">
+      <c r="AJ9" s="3">
         <v>7</v>
       </c>
-      <c r="AL9">
+      <c r="AL9" s="14">
         <v>7</v>
       </c>
-      <c r="AS9">
+      <c r="AM9" s="16"/>
+      <c r="AN9" s="16"/>
+      <c r="AO9" s="16"/>
+      <c r="AP9" s="3"/>
+      <c r="AQ9" s="3"/>
+      <c r="AS9" s="14">
         <v>7</v>
       </c>
-      <c r="BB9">
+      <c r="AT9" s="3"/>
+      <c r="AU9" s="16"/>
+      <c r="AV9" s="16"/>
+      <c r="AW9" s="3"/>
+      <c r="AX9" s="3"/>
+      <c r="AY9" s="3"/>
+      <c r="AZ9" s="3"/>
+      <c r="BB9" s="14">
         <v>7</v>
       </c>
-      <c r="BF9">
+      <c r="BC9" s="3"/>
+      <c r="BD9" s="3"/>
+      <c r="BF9" s="14">
         <v>7</v>
       </c>
+      <c r="BG9" s="3"/>
+      <c r="BH9" s="3"/>
+      <c r="BI9" s="3"/>
+      <c r="BJ9" s="16"/>
     </row>
     <row r="10" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="14">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="14">
         <v>8</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="3">
         <v>500</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="3">
         <v>38349289592</v>
       </c>
-      <c r="L10" s="1">
+      <c r="L10" s="15">
         <v>412480259</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="N10" t="s">
+      <c r="N10" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="3">
         <v>38349261991</v>
       </c>
-      <c r="P10" t="s">
+      <c r="P10" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="14">
         <v>8</v>
       </c>
-      <c r="S10" t="s">
+      <c r="S10" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="T10" t="s">
+      <c r="T10" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="U10">
+      <c r="U10" s="16">
         <v>8</v>
       </c>
-      <c r="V10" s="1">
+      <c r="V10" s="17">
         <v>437644808</v>
       </c>
-      <c r="W10">
+      <c r="W10" s="16">
         <v>7</v>
       </c>
-      <c r="X10" t="b">
+      <c r="X10" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="Z10">
+      <c r="Z10" s="14">
         <v>8</v>
       </c>
-      <c r="AA10">
+      <c r="AA10" s="16">
         <v>7</v>
       </c>
-      <c r="AB10">
+      <c r="AB10" s="16">
         <v>3</v>
       </c>
-      <c r="AC10">
+      <c r="AC10" s="16">
         <v>2</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AD10" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="AF10">
+      <c r="AF10" s="14">
         <v>8</v>
       </c>
-      <c r="AG10" t="s">
+      <c r="AG10" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="AH10" t="s">
+      <c r="AH10" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="AI10" t="s">
+      <c r="AI10" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AJ10">
+      <c r="AJ10" s="3">
         <v>12</v>
       </c>
-      <c r="AL10">
+      <c r="AL10" s="14">
         <v>8</v>
       </c>
-      <c r="AS10">
+      <c r="AM10" s="16"/>
+      <c r="AN10" s="16"/>
+      <c r="AO10" s="16"/>
+      <c r="AP10" s="3"/>
+      <c r="AQ10" s="3"/>
+      <c r="AS10" s="14">
         <v>8</v>
       </c>
-      <c r="BB10">
+      <c r="AT10" s="3"/>
+      <c r="AU10" s="16"/>
+      <c r="AV10" s="16"/>
+      <c r="AW10" s="3"/>
+      <c r="AX10" s="3"/>
+      <c r="AY10" s="3"/>
+      <c r="AZ10" s="3"/>
+      <c r="BB10" s="14">
         <v>8</v>
       </c>
-      <c r="BF10">
+      <c r="BC10" s="3"/>
+      <c r="BD10" s="3"/>
+      <c r="BF10" s="14">
         <v>8</v>
       </c>
+      <c r="BG10" s="3"/>
+      <c r="BH10" s="3"/>
+      <c r="BI10" s="3"/>
+      <c r="BJ10" s="16"/>
     </row>
     <row r="11" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="14">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="14">
         <v>9</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="3">
         <v>800</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="3">
         <v>38349729998</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L11" s="15">
         <v>268247245</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="N11" t="s">
+      <c r="N11" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="3">
         <v>38349741071</v>
       </c>
-      <c r="P11" t="s">
+      <c r="P11" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="R11">
+      <c r="R11" s="14">
         <v>9</v>
       </c>
-      <c r="S11" t="s">
+      <c r="S11" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="T11" t="s">
+      <c r="T11" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="U11">
+      <c r="U11" s="16">
         <v>2</v>
       </c>
-      <c r="V11" s="1">
+      <c r="V11" s="17">
         <v>329205740</v>
       </c>
-      <c r="W11">
+      <c r="W11" s="16">
         <v>8</v>
       </c>
-      <c r="X11" t="b">
+      <c r="X11" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="Z11">
+      <c r="Z11" s="14">
         <v>9</v>
       </c>
-      <c r="AA11">
+      <c r="AA11" s="16">
         <v>8</v>
       </c>
-      <c r="AB11">
+      <c r="AB11" s="16">
         <v>10</v>
       </c>
-      <c r="AC11">
+      <c r="AC11" s="16">
         <v>2</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AD11" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="AF11">
+      <c r="AF11" s="14">
         <v>9</v>
       </c>
-      <c r="AG11" t="s">
+      <c r="AG11" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="AH11" t="s">
+      <c r="AH11" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="AI11" t="s">
+      <c r="AI11" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AJ11">
+      <c r="AJ11" s="3">
         <v>5</v>
       </c>
-      <c r="AL11">
+      <c r="AL11" s="14">
         <v>9</v>
       </c>
-      <c r="AS11">
+      <c r="AM11" s="16"/>
+      <c r="AN11" s="16"/>
+      <c r="AO11" s="16"/>
+      <c r="AP11" s="3"/>
+      <c r="AQ11" s="3"/>
+      <c r="AS11" s="14">
         <v>9</v>
       </c>
-      <c r="BB11">
+      <c r="AT11" s="3"/>
+      <c r="AU11" s="16"/>
+      <c r="AV11" s="16"/>
+      <c r="AW11" s="3"/>
+      <c r="AX11" s="3"/>
+      <c r="AY11" s="3"/>
+      <c r="AZ11" s="3"/>
+      <c r="BB11" s="14">
         <v>9</v>
       </c>
-      <c r="BF11">
+      <c r="BC11" s="3"/>
+      <c r="BD11" s="3"/>
+      <c r="BF11" s="14">
         <v>9</v>
       </c>
+      <c r="BG11" s="3"/>
+      <c r="BH11" s="3"/>
+      <c r="BI11" s="3"/>
+      <c r="BJ11" s="16"/>
     </row>
     <row r="12" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="14">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="14">
         <v>10</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="3">
         <v>411</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="3">
         <v>38349148062</v>
       </c>
-      <c r="L12" s="1">
+      <c r="L12" s="15">
         <v>953324644</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M12" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="N12" t="s">
+      <c r="N12" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="3">
         <v>38349987526</v>
       </c>
-      <c r="P12" t="s">
+      <c r="P12" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="R12">
+      <c r="R12" s="14">
         <v>10</v>
       </c>
-      <c r="S12" t="s">
+      <c r="S12" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="T12" t="s">
+      <c r="T12" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="U12">
+      <c r="U12" s="16">
         <v>8</v>
       </c>
-      <c r="V12" s="1">
+      <c r="V12" s="17">
         <v>173157921</v>
       </c>
-      <c r="W12">
+      <c r="W12" s="16">
         <v>10</v>
       </c>
-      <c r="X12" t="b">
+      <c r="X12" s="3" t="b">
         <v>0</v>
       </c>
-      <c r="Z12">
+      <c r="Z12" s="14">
         <v>10</v>
       </c>
-      <c r="AA12">
+      <c r="AA12" s="16">
         <v>10</v>
       </c>
-      <c r="AB12">
+      <c r="AB12" s="16">
         <v>4</v>
       </c>
-      <c r="AC12">
-        <v>1</v>
-      </c>
-      <c r="AD12" t="s">
+      <c r="AC12" s="16">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="AF12">
+      <c r="AF12" s="14">
         <v>10</v>
       </c>
-      <c r="AG12" t="s">
+      <c r="AG12" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="AH12" t="s">
+      <c r="AH12" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="AI12" t="s">
+      <c r="AI12" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="AJ12">
+      <c r="AJ12" s="3">
         <v>9</v>
       </c>
-      <c r="AL12">
+      <c r="AL12" s="14">
         <v>10</v>
       </c>
-      <c r="AS12">
+      <c r="AM12" s="16"/>
+      <c r="AN12" s="16"/>
+      <c r="AO12" s="16"/>
+      <c r="AP12" s="3"/>
+      <c r="AQ12" s="3"/>
+      <c r="AS12" s="14">
         <v>10</v>
       </c>
-      <c r="BB12">
+      <c r="AT12" s="3"/>
+      <c r="AU12" s="16"/>
+      <c r="AV12" s="16"/>
+      <c r="AW12" s="3"/>
+      <c r="AX12" s="3"/>
+      <c r="AY12" s="3"/>
+      <c r="AZ12" s="3"/>
+      <c r="BB12" s="14">
         <v>10</v>
       </c>
-      <c r="BF12">
+      <c r="BC12" s="3"/>
+      <c r="BD12" s="3"/>
+      <c r="BF12" s="14">
         <v>10</v>
       </c>
+      <c r="BG12" s="3"/>
+      <c r="BH12" s="3"/>
+      <c r="BI12" s="3"/>
+      <c r="BJ12" s="16"/>
+    </row>
+    <row r="16" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="C16" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="F16" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="L1:P1"/>
+    <mergeCell ref="R1:X1"/>
+    <mergeCell ref="Z1:AD1"/>
     <mergeCell ref="BF1:BJ1"/>
     <mergeCell ref="BB1:BD1"/>
     <mergeCell ref="AL1:AQ1"/>
     <mergeCell ref="AS1:AZ1"/>
     <mergeCell ref="AF1:AJ1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="L1:P1"/>
-    <mergeCell ref="R1:X1"/>
-    <mergeCell ref="Z1:AD1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Faza1.xlsx
+++ b/Faza1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-SYSTEMS\Desktop\Fiek\Viti2\Semestri 3\Bazat e te dhenave\Projekti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C657611F-71AB-4E3E-B9DA-7ED5F9F6FA5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99CD4879-FA78-468D-92B1-50BE700840B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7830" yWindow="2985" windowWidth="19560" windowHeight="11505" xr2:uid="{BB24531B-C80D-485B-B866-C966F7BC44FC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{BB24531B-C80D-485B-B866-C966F7BC44FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="182">
   <si>
     <t>Tavolina</t>
   </si>
@@ -454,6 +454,123 @@
   </si>
   <si>
     <t>Foreign Key</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Kartel</t>
+  </si>
+  <si>
+    <t>10/29/2025</t>
+  </si>
+  <si>
+    <t>11/18/2021</t>
+  </si>
+  <si>
+    <t>09/18/2024</t>
+  </si>
+  <si>
+    <t>03/28/2024</t>
+  </si>
+  <si>
+    <t>01/21/2023</t>
+  </si>
+  <si>
+    <t>04/15/2024</t>
+  </si>
+  <si>
+    <t>12/15/2022</t>
+  </si>
+  <si>
+    <t>Fast Delivery</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>N&amp;H</t>
+  </si>
+  <si>
+    <t>D&amp;D</t>
+  </si>
+  <si>
+    <t>ZTO Express</t>
+  </si>
+  <si>
+    <t>FedEx</t>
+  </si>
+  <si>
+    <t>UPS</t>
+  </si>
+  <si>
+    <t>Blue Dart</t>
+  </si>
+  <si>
+    <t>DTDC</t>
+  </si>
+  <si>
+    <t>Uje</t>
+  </si>
+  <si>
+    <t>Bizele</t>
+  </si>
+  <si>
+    <t>Peperoni</t>
+  </si>
+  <si>
+    <t>Kafe</t>
+  </si>
+  <si>
+    <t>Kakao</t>
+  </si>
+  <si>
+    <t>Suxhuk</t>
+  </si>
+  <si>
+    <t>Mish Viqi</t>
+  </si>
+  <si>
+    <t>Sheqer</t>
+  </si>
+  <si>
+    <t>Kryp</t>
+  </si>
+  <si>
+    <t>Vere</t>
   </si>
 </sst>
 </file>
@@ -569,10 +686,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -582,31 +712,18 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -924,7 +1041,7 @@
   <dimension ref="A1:BJ16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -964,1512 +1081,1869 @@
     <col min="53" max="53" width="13.5703125" customWidth="1"/>
     <col min="54" max="54" width="11.42578125" customWidth="1"/>
     <col min="55" max="55" width="13.140625" customWidth="1"/>
+    <col min="56" max="56" width="16.140625" customWidth="1"/>
+    <col min="59" max="59" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="D1" s="4" t="s">
+      <c r="B1" s="10"/>
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="L1" s="5" t="s">
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="L1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="R1" s="6" t="s">
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="R1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Z1" s="8" t="s">
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Z1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="AA1" s="8"/>
-      <c r="AB1" s="8"/>
-      <c r="AC1" s="8"/>
-      <c r="AD1" s="8"/>
-      <c r="AF1" s="9" t="s">
+      <c r="AA1" s="14"/>
+      <c r="AB1" s="14"/>
+      <c r="AC1" s="14"/>
+      <c r="AD1" s="14"/>
+      <c r="AF1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="AG1" s="9"/>
-      <c r="AH1" s="9"/>
-      <c r="AI1" s="9"/>
-      <c r="AJ1" s="9"/>
-      <c r="AL1" s="10" t="s">
+      <c r="AG1" s="17"/>
+      <c r="AH1" s="17"/>
+      <c r="AI1" s="17"/>
+      <c r="AJ1" s="17"/>
+      <c r="AL1" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="AM1" s="10"/>
-      <c r="AN1" s="10"/>
-      <c r="AO1" s="10"/>
-      <c r="AP1" s="10"/>
-      <c r="AQ1" s="10"/>
-      <c r="AS1" s="5" t="s">
+      <c r="AM1" s="16"/>
+      <c r="AN1" s="16"/>
+      <c r="AO1" s="16"/>
+      <c r="AP1" s="16"/>
+      <c r="AQ1" s="16"/>
+      <c r="AS1" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="AT1" s="5"/>
-      <c r="AU1" s="5"/>
-      <c r="AV1" s="5"/>
-      <c r="AW1" s="5"/>
-      <c r="AX1" s="5"/>
-      <c r="AY1" s="5"/>
-      <c r="AZ1" s="5"/>
-      <c r="BB1" s="11" t="s">
+      <c r="AT1" s="12"/>
+      <c r="AU1" s="12"/>
+      <c r="AV1" s="12"/>
+      <c r="AW1" s="12"/>
+      <c r="AX1" s="12"/>
+      <c r="AY1" s="12"/>
+      <c r="AZ1" s="12"/>
+      <c r="BB1" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="BC1" s="11"/>
-      <c r="BD1" s="11"/>
+      <c r="BC1" s="15"/>
+      <c r="BD1" s="15"/>
       <c r="BE1" s="1"/>
-      <c r="BF1" s="2" t="s">
+      <c r="BF1" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="BG1" s="2"/>
-      <c r="BH1" s="2"/>
-      <c r="BI1" s="2"/>
-      <c r="BJ1" s="2"/>
+      <c r="BG1" s="10"/>
+      <c r="BH1" s="10"/>
+      <c r="BI1" s="10"/>
+      <c r="BJ1" s="10"/>
     </row>
     <row r="2" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N2" s="3" t="s">
+      <c r="L2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="R2" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="S2" s="3" t="s">
+      <c r="R2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="T2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="16" t="s">
+      <c r="U2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="V2" s="16" t="s">
+      <c r="V2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="W2" s="16" t="s">
+      <c r="W2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="X2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="Z2" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA2" s="16" t="s">
+      <c r="Z2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="AB2" s="16" t="s">
+      <c r="AB2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="AC2" s="16" t="s">
+      <c r="AC2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AD2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="AF2" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG2" s="3" t="s">
+      <c r="AF2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AH2" s="3" t="s">
+      <c r="AH2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AI2" s="3" t="s">
+      <c r="AI2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AJ2" s="3" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AL2" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="AM2" s="16" t="s">
+      <c r="AL2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="AN2" s="16" t="s">
+      <c r="AN2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="AO2" s="16" t="s">
+      <c r="AO2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="AP2" s="3" t="s">
+      <c r="AP2" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="AQ2" s="3" t="s">
+      <c r="AQ2" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="AS2" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="AT2" s="3" t="s">
+      <c r="AS2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT2" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="AU2" s="16" t="s">
+      <c r="AU2" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="AV2" s="16" t="s">
+      <c r="AV2" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="AW2" s="3" t="s">
+      <c r="AW2" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="AX2" s="3" t="s">
+      <c r="AX2" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="AY2" s="3" t="s">
+      <c r="AY2" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="AZ2" s="3" t="s">
+      <c r="AZ2" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="BB2" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="BC2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="BD2" s="3" t="s">
+      <c r="BB2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="BC2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="BD2" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="BF2" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="BG2" s="3" t="s">
+      <c r="BF2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="BG2" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="BH2" s="3" t="s">
+      <c r="BH2" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="BI2" s="3" t="s">
+      <c r="BI2" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="BJ2" s="16" t="s">
+      <c r="BJ2" s="6" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="14">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="2">
         <v>1150</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="2">
         <v>38349271596</v>
       </c>
-      <c r="L3" s="15">
+      <c r="L3" s="5">
         <v>182628905</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O3" s="2">
         <v>38349867123</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="R3" s="14">
-        <v>1</v>
-      </c>
-      <c r="S3" s="3" t="s">
+      <c r="R3" s="4">
+        <v>1</v>
+      </c>
+      <c r="S3" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="T3" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="U3" s="16">
-        <v>2</v>
-      </c>
-      <c r="V3" s="17">
+      <c r="U3" s="6">
+        <v>2</v>
+      </c>
+      <c r="V3" s="7">
         <v>329205740</v>
       </c>
-      <c r="W3" s="16">
+      <c r="W3" s="6">
         <v>3</v>
       </c>
-      <c r="X3" s="3" t="b">
+      <c r="X3" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="Z3" s="14">
-        <v>1</v>
-      </c>
-      <c r="AA3" s="16">
+      <c r="Z3" s="4">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="6">
         <v>3</v>
       </c>
-      <c r="AB3" s="16">
+      <c r="AB3" s="6">
         <v>10</v>
       </c>
-      <c r="AC3" s="16">
-        <v>2</v>
-      </c>
-      <c r="AD3" s="3" t="s">
+      <c r="AC3" s="6">
+        <v>2</v>
+      </c>
+      <c r="AD3" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="AF3" s="14">
-        <v>1</v>
-      </c>
-      <c r="AG3" s="3" t="s">
+      <c r="AF3" s="4">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="AH3" s="3" t="s">
+      <c r="AH3" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="AI3" s="3" t="s">
+      <c r="AI3" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="AJ3" s="3">
+      <c r="AJ3" s="2">
         <v>6</v>
       </c>
-      <c r="AL3" s="14">
-        <v>1</v>
-      </c>
-      <c r="AM3" s="16"/>
-      <c r="AN3" s="16"/>
-      <c r="AO3" s="16"/>
-      <c r="AP3" s="3"/>
-      <c r="AQ3" s="3"/>
-      <c r="AS3" s="14">
-        <v>1</v>
-      </c>
-      <c r="AT3" s="3"/>
-      <c r="AU3" s="16"/>
-      <c r="AV3" s="16"/>
-      <c r="AW3" s="3"/>
-      <c r="AX3" s="3"/>
-      <c r="AY3" s="3"/>
-      <c r="AZ3" s="3"/>
-      <c r="BB3" s="14">
-        <v>1</v>
-      </c>
-      <c r="BC3" s="3"/>
-      <c r="BD3" s="3"/>
-      <c r="BF3" s="14">
-        <v>1</v>
-      </c>
-      <c r="BG3" s="3"/>
-      <c r="BH3" s="3"/>
-      <c r="BI3" s="3"/>
-      <c r="BJ3" s="16"/>
+      <c r="AL3" s="4">
+        <v>1</v>
+      </c>
+      <c r="AM3" s="7">
+        <v>454035610</v>
+      </c>
+      <c r="AN3" s="6">
+        <v>10</v>
+      </c>
+      <c r="AO3" s="6">
+        <v>2</v>
+      </c>
+      <c r="AP3" s="2">
+        <v>6</v>
+      </c>
+      <c r="AQ3" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AS3" s="4">
+        <v>1</v>
+      </c>
+      <c r="AT3" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="AU3" s="6">
+        <v>3</v>
+      </c>
+      <c r="AV3" s="6">
+        <v>6</v>
+      </c>
+      <c r="AW3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AX3" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AY3" s="2">
+        <v>5400</v>
+      </c>
+      <c r="AZ3" s="2">
+        <v>1000</v>
+      </c>
+      <c r="BB3" s="4">
+        <v>1</v>
+      </c>
+      <c r="BC3" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="BD3" s="2">
+        <v>49455787</v>
+      </c>
+      <c r="BF3" s="4">
+        <v>1</v>
+      </c>
+      <c r="BG3" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="BH3" s="2">
+        <v>561</v>
+      </c>
+      <c r="BI3" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="BJ3" s="6">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A4" s="14">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="14">
-        <v>2</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="D4" s="4">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <v>500</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="2">
         <v>38349528431</v>
       </c>
-      <c r="L4" s="15">
+      <c r="L4" s="5">
         <v>329205740</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O4" s="2">
         <v>38349312838</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="R4" s="14">
-        <v>2</v>
-      </c>
-      <c r="S4" s="3" t="s">
+      <c r="R4" s="4">
+        <v>2</v>
+      </c>
+      <c r="S4" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="T4" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="U4" s="16">
+      <c r="U4" s="6">
         <v>8</v>
       </c>
-      <c r="V4" s="17">
+      <c r="V4" s="7">
         <v>557467478</v>
       </c>
-      <c r="W4" s="16">
-        <v>4</v>
-      </c>
-      <c r="X4" s="3" t="b">
+      <c r="W4" s="6">
+        <v>4</v>
+      </c>
+      <c r="X4" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="Z4" s="14">
-        <v>2</v>
-      </c>
-      <c r="AA4" s="16">
-        <v>4</v>
-      </c>
-      <c r="AB4" s="16">
+      <c r="Z4" s="4">
+        <v>2</v>
+      </c>
+      <c r="AA4" s="6">
+        <v>4</v>
+      </c>
+      <c r="AB4" s="6">
         <v>3</v>
       </c>
-      <c r="AC4" s="16">
-        <v>4</v>
-      </c>
-      <c r="AD4" s="3" t="s">
+      <c r="AC4" s="6">
+        <v>4</v>
+      </c>
+      <c r="AD4" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="AF4" s="14">
-        <v>2</v>
-      </c>
-      <c r="AG4" s="3" t="s">
+      <c r="AF4" s="4">
+        <v>2</v>
+      </c>
+      <c r="AG4" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="AH4" s="3" t="s">
+      <c r="AH4" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="AI4" s="3" t="s">
+      <c r="AI4" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="AJ4" s="3">
-        <v>2</v>
-      </c>
-      <c r="AL4" s="14">
-        <v>2</v>
-      </c>
-      <c r="AM4" s="16"/>
-      <c r="AN4" s="16"/>
-      <c r="AO4" s="16"/>
-      <c r="AP4" s="3"/>
-      <c r="AQ4" s="3"/>
-      <c r="AS4" s="14">
-        <v>2</v>
-      </c>
-      <c r="AT4" s="3"/>
-      <c r="AU4" s="16"/>
-      <c r="AV4" s="16"/>
-      <c r="AW4" s="3"/>
-      <c r="AX4" s="3"/>
-      <c r="AY4" s="3"/>
-      <c r="AZ4" s="3"/>
-      <c r="BB4" s="14">
-        <v>2</v>
-      </c>
-      <c r="BC4" s="3"/>
-      <c r="BD4" s="3"/>
-      <c r="BF4" s="14">
-        <v>2</v>
-      </c>
-      <c r="BG4" s="3"/>
-      <c r="BH4" s="3"/>
-      <c r="BI4" s="3"/>
-      <c r="BJ4" s="16"/>
+      <c r="AJ4" s="2">
+        <v>2</v>
+      </c>
+      <c r="AL4" s="4">
+        <v>2</v>
+      </c>
+      <c r="AM4" s="7">
+        <v>268247245</v>
+      </c>
+      <c r="AN4" s="6">
+        <v>3</v>
+      </c>
+      <c r="AO4" s="6">
+        <v>4</v>
+      </c>
+      <c r="AP4" s="2">
+        <v>2</v>
+      </c>
+      <c r="AQ4" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AS4" s="4">
+        <v>2</v>
+      </c>
+      <c r="AT4" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="AU4" s="6">
+        <v>1</v>
+      </c>
+      <c r="AV4" s="6">
+        <v>1</v>
+      </c>
+      <c r="AW4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX4" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AY4" s="2">
+        <v>6700</v>
+      </c>
+      <c r="AZ4" s="2">
+        <v>500</v>
+      </c>
+      <c r="BB4" s="4">
+        <v>2</v>
+      </c>
+      <c r="BC4" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="BD4" s="2">
+        <v>49769934</v>
+      </c>
+      <c r="BF4" s="4">
+        <v>2</v>
+      </c>
+      <c r="BG4" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="BH4" s="2">
+        <v>241</v>
+      </c>
+      <c r="BI4" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="BJ4" s="6">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A5" s="14">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="4">
         <v>3</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <v>500</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="2">
         <v>38349900960</v>
       </c>
-      <c r="L5" s="15">
+      <c r="L5" s="5">
         <v>454035610</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="N5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="O5" s="3">
+      <c r="O5" s="2">
         <v>38349622172</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="P5" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="R5" s="14">
+      <c r="R5" s="4">
         <v>3</v>
       </c>
-      <c r="S5" s="3" t="s">
+      <c r="S5" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="T5" s="3" t="s">
+      <c r="T5" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="U5" s="16">
-        <v>2</v>
-      </c>
-      <c r="V5" s="17">
+      <c r="U5" s="6">
+        <v>2</v>
+      </c>
+      <c r="V5" s="7">
         <v>402863845</v>
       </c>
-      <c r="W5" s="16">
-        <v>1</v>
-      </c>
-      <c r="X5" s="3" t="b">
+      <c r="W5" s="6">
+        <v>1</v>
+      </c>
+      <c r="X5" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="Z5" s="14">
+      <c r="Z5" s="4">
         <v>3</v>
       </c>
-      <c r="AA5" s="16">
-        <v>1</v>
-      </c>
-      <c r="AB5" s="16">
-        <v>4</v>
-      </c>
-      <c r="AC5" s="16">
+      <c r="AA5" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="6">
+        <v>4</v>
+      </c>
+      <c r="AC5" s="6">
         <v>5</v>
       </c>
-      <c r="AD5" s="3" t="s">
+      <c r="AD5" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AF5" s="14">
+      <c r="AF5" s="4">
         <v>3</v>
       </c>
-      <c r="AG5" s="3" t="s">
+      <c r="AG5" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="AH5" s="3" t="s">
+      <c r="AH5" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="AI5" s="3" t="s">
+      <c r="AI5" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="AJ5" s="3">
+      <c r="AJ5" s="2">
         <v>9.5</v>
       </c>
-      <c r="AL5" s="14">
+      <c r="AL5" s="4">
         <v>3</v>
       </c>
-      <c r="AM5" s="16"/>
-      <c r="AN5" s="16"/>
-      <c r="AO5" s="16"/>
-      <c r="AP5" s="3"/>
-      <c r="AQ5" s="3"/>
-      <c r="AS5" s="14">
+      <c r="AM5" s="7">
+        <v>454035610</v>
+      </c>
+      <c r="AN5" s="6">
+        <v>4</v>
+      </c>
+      <c r="AO5" s="6">
+        <v>5</v>
+      </c>
+      <c r="AP5" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="AQ5" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AS5" s="4">
         <v>3</v>
       </c>
-      <c r="AT5" s="3"/>
-      <c r="AU5" s="16"/>
-      <c r="AV5" s="16"/>
-      <c r="AW5" s="3"/>
-      <c r="AX5" s="3"/>
-      <c r="AY5" s="3"/>
-      <c r="AZ5" s="3"/>
-      <c r="BB5" s="14">
+      <c r="AT5" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="AU5" s="6">
+        <v>2</v>
+      </c>
+      <c r="AV5" s="6">
+        <v>4</v>
+      </c>
+      <c r="AW5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX5" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AY5" s="2">
+        <v>320</v>
+      </c>
+      <c r="AZ5" s="2">
+        <v>50</v>
+      </c>
+      <c r="BB5" s="4">
         <v>3</v>
       </c>
-      <c r="BC5" s="3"/>
-      <c r="BD5" s="3"/>
-      <c r="BF5" s="14">
+      <c r="BC5" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="BD5" s="2">
+        <v>49055259</v>
+      </c>
+      <c r="BF5" s="4">
         <v>3</v>
       </c>
-      <c r="BG5" s="3"/>
-      <c r="BH5" s="3"/>
-      <c r="BI5" s="3"/>
-      <c r="BJ5" s="16"/>
+      <c r="BG5" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="BH5" s="2">
+        <v>6311</v>
+      </c>
+      <c r="BI5" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="BJ5" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A6" s="14">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="14">
-        <v>4</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="D6" s="4">
+        <v>4</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="2">
         <v>650</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="2">
         <v>38349136737</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L6" s="5">
         <v>173157921</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="M6" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="N6" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O6" s="2">
         <v>38349208401</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="P6" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="R6" s="14">
-        <v>4</v>
-      </c>
-      <c r="S6" s="3" t="s">
+      <c r="R6" s="4">
+        <v>4</v>
+      </c>
+      <c r="S6" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="T6" s="3" t="s">
+      <c r="T6" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="U6" s="16">
+      <c r="U6" s="6">
         <v>8</v>
       </c>
-      <c r="V6" s="17">
+      <c r="V6" s="7">
         <v>412480259</v>
       </c>
-      <c r="W6" s="16">
-        <v>2</v>
-      </c>
-      <c r="X6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="14">
-        <v>4</v>
-      </c>
-      <c r="AA6" s="16">
-        <v>2</v>
-      </c>
-      <c r="AB6" s="16">
+      <c r="W6" s="6">
+        <v>2</v>
+      </c>
+      <c r="X6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="4">
+        <v>4</v>
+      </c>
+      <c r="AA6" s="6">
+        <v>2</v>
+      </c>
+      <c r="AB6" s="6">
         <v>10</v>
       </c>
-      <c r="AC6" s="16">
-        <v>1</v>
-      </c>
-      <c r="AD6" s="3" t="s">
+      <c r="AC6" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AF6" s="14">
-        <v>4</v>
-      </c>
-      <c r="AG6" s="3" t="s">
+      <c r="AF6" s="4">
+        <v>4</v>
+      </c>
+      <c r="AG6" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AH6" s="3" t="s">
+      <c r="AH6" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="AI6" s="3" t="s">
+      <c r="AI6" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="AJ6" s="3">
-        <v>2</v>
-      </c>
-      <c r="AL6" s="14">
-        <v>4</v>
-      </c>
-      <c r="AM6" s="16"/>
-      <c r="AN6" s="16"/>
-      <c r="AO6" s="16"/>
-      <c r="AP6" s="3"/>
-      <c r="AQ6" s="3"/>
-      <c r="AS6" s="14">
-        <v>4</v>
-      </c>
-      <c r="AT6" s="3"/>
-      <c r="AU6" s="16"/>
-      <c r="AV6" s="16"/>
-      <c r="AW6" s="3"/>
-      <c r="AX6" s="3"/>
-      <c r="AY6" s="3"/>
-      <c r="AZ6" s="3"/>
-      <c r="BB6" s="14">
-        <v>4</v>
-      </c>
-      <c r="BC6" s="3"/>
-      <c r="BD6" s="3"/>
-      <c r="BF6" s="14">
-        <v>4</v>
-      </c>
-      <c r="BG6" s="3"/>
-      <c r="BH6" s="3"/>
-      <c r="BI6" s="3"/>
-      <c r="BJ6" s="16"/>
+      <c r="AJ6" s="2">
+        <v>2</v>
+      </c>
+      <c r="AL6" s="4">
+        <v>4</v>
+      </c>
+      <c r="AM6" s="7">
+        <v>173157921</v>
+      </c>
+      <c r="AN6" s="6">
+        <v>10</v>
+      </c>
+      <c r="AO6" s="6">
+        <v>1</v>
+      </c>
+      <c r="AP6" s="2">
+        <v>2</v>
+      </c>
+      <c r="AQ6" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AS6" s="4">
+        <v>4</v>
+      </c>
+      <c r="AT6" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="AU6" s="6">
+        <v>4</v>
+      </c>
+      <c r="AV6" s="6">
+        <v>4</v>
+      </c>
+      <c r="AW6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AX6" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="AY6" s="2">
+        <v>7000</v>
+      </c>
+      <c r="AZ6" s="2">
+        <v>200</v>
+      </c>
+      <c r="BB6" s="4">
+        <v>4</v>
+      </c>
+      <c r="BC6" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="BD6" s="2">
+        <v>49454087</v>
+      </c>
+      <c r="BF6" s="4">
+        <v>4</v>
+      </c>
+      <c r="BG6" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="BH6" s="2">
+        <v>1242</v>
+      </c>
+      <c r="BI6" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="BJ6" s="6">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
+      <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="4">
         <v>5</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="2">
         <v>800</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="2">
         <v>38349145741</v>
       </c>
-      <c r="L7" s="15">
+      <c r="L7" s="5">
         <v>557467478</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="M7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="N7" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="O7" s="3">
+      <c r="O7" s="2">
         <v>38349177000</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="P7" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="R7" s="14">
+      <c r="R7" s="4">
         <v>5</v>
       </c>
-      <c r="S7" s="3" t="s">
+      <c r="S7" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="T7" s="3" t="s">
+      <c r="T7" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="U7" s="16">
+      <c r="U7" s="6">
         <v>8</v>
       </c>
-      <c r="V7" s="17">
+      <c r="V7" s="7">
         <v>329205740</v>
       </c>
-      <c r="W7" s="16">
+      <c r="W7" s="6">
         <v>3</v>
       </c>
-      <c r="X7" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="14">
+      <c r="X7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="4">
         <v>5</v>
       </c>
-      <c r="AA7" s="16">
+      <c r="AA7" s="6">
         <v>3</v>
       </c>
-      <c r="AB7" s="16">
-        <v>4</v>
-      </c>
-      <c r="AC7" s="16">
-        <v>2</v>
-      </c>
-      <c r="AD7" s="3" t="s">
+      <c r="AB7" s="6">
+        <v>4</v>
+      </c>
+      <c r="AC7" s="6">
+        <v>2</v>
+      </c>
+      <c r="AD7" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AF7" s="14">
+      <c r="AF7" s="4">
         <v>5</v>
       </c>
-      <c r="AG7" s="3" t="s">
+      <c r="AG7" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="AH7" s="3" t="s">
+      <c r="AH7" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="AI7" s="3" t="s">
+      <c r="AI7" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="AJ7" s="3">
+      <c r="AJ7" s="2">
         <v>14</v>
       </c>
-      <c r="AL7" s="14">
+      <c r="AL7" s="4">
         <v>5</v>
       </c>
-      <c r="AM7" s="16"/>
-      <c r="AN7" s="16"/>
-      <c r="AO7" s="16"/>
-      <c r="AP7" s="3"/>
-      <c r="AQ7" s="3"/>
-      <c r="AS7" s="14">
+      <c r="AM7" s="7">
+        <v>173157921</v>
+      </c>
+      <c r="AN7" s="6">
+        <v>4</v>
+      </c>
+      <c r="AO7" s="6">
+        <v>2</v>
+      </c>
+      <c r="AP7" s="2">
+        <v>14</v>
+      </c>
+      <c r="AQ7" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AS7" s="4">
         <v>5</v>
       </c>
-      <c r="AT7" s="3"/>
-      <c r="AU7" s="16"/>
-      <c r="AV7" s="16"/>
-      <c r="AW7" s="3"/>
-      <c r="AX7" s="3"/>
-      <c r="AY7" s="3"/>
-      <c r="AZ7" s="3"/>
-      <c r="BB7" s="14">
+      <c r="AT7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AU7" s="6">
+        <v>1</v>
+      </c>
+      <c r="AV7" s="6">
+        <v>6</v>
+      </c>
+      <c r="AW7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="AX7" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="AY7" s="2">
+        <v>12000</v>
+      </c>
+      <c r="AZ7" s="2">
+        <v>1000</v>
+      </c>
+      <c r="BB7" s="4">
         <v>5</v>
       </c>
-      <c r="BC7" s="3"/>
-      <c r="BD7" s="3"/>
-      <c r="BF7" s="14">
+      <c r="BC7" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="BD7" s="2">
+        <v>49626666</v>
+      </c>
+      <c r="BF7" s="4">
         <v>5</v>
       </c>
-      <c r="BG7" s="3"/>
-      <c r="BH7" s="3"/>
-      <c r="BI7" s="3"/>
-      <c r="BJ7" s="16"/>
+      <c r="BG7" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="BH7" s="2">
+        <v>531</v>
+      </c>
+      <c r="BI7" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="BJ7" s="6">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
+      <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="4">
         <v>6</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="2">
         <v>600</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="2">
         <v>38349772449</v>
       </c>
-      <c r="L8" s="15">
+      <c r="L8" s="5">
         <v>437644808</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="M8" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="N8" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O8" s="2">
         <v>38349970004</v>
       </c>
-      <c r="P8" s="3" t="s">
+      <c r="P8" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="R8" s="14">
+      <c r="R8" s="4">
         <v>6</v>
       </c>
-      <c r="S8" s="3" t="s">
+      <c r="S8" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="T8" s="7">
+      <c r="T8" s="3">
         <v>44509</v>
       </c>
-      <c r="U8" s="16">
-        <v>2</v>
-      </c>
-      <c r="V8" s="17">
+      <c r="U8" s="6">
+        <v>2</v>
+      </c>
+      <c r="V8" s="7">
         <v>268247245</v>
       </c>
-      <c r="W8" s="16">
-        <v>2</v>
-      </c>
-      <c r="X8" s="3" t="b">
+      <c r="W8" s="6">
+        <v>2</v>
+      </c>
+      <c r="X8" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="Z8" s="14">
+      <c r="Z8" s="4">
         <v>6</v>
       </c>
-      <c r="AA8" s="16">
-        <v>2</v>
-      </c>
-      <c r="AB8" s="16">
-        <v>4</v>
-      </c>
-      <c r="AC8" s="16">
-        <v>4</v>
-      </c>
-      <c r="AD8" s="3" t="s">
+      <c r="AA8" s="6">
+        <v>2</v>
+      </c>
+      <c r="AB8" s="6">
+        <v>4</v>
+      </c>
+      <c r="AC8" s="6">
+        <v>4</v>
+      </c>
+      <c r="AD8" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AF8" s="14">
+      <c r="AF8" s="4">
         <v>6</v>
       </c>
-      <c r="AG8" s="3" t="s">
+      <c r="AG8" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="AH8" s="3" t="s">
+      <c r="AH8" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="AI8" s="3" t="s">
+      <c r="AI8" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="AJ8" s="3">
-        <v>4</v>
-      </c>
-      <c r="AL8" s="14">
+      <c r="AJ8" s="2">
+        <v>4</v>
+      </c>
+      <c r="AL8" s="4">
         <v>6</v>
       </c>
-      <c r="AM8" s="16"/>
-      <c r="AN8" s="16"/>
-      <c r="AO8" s="16"/>
-      <c r="AP8" s="3"/>
-      <c r="AQ8" s="3"/>
-      <c r="AS8" s="14">
+      <c r="AM8" s="7">
+        <v>454035610</v>
+      </c>
+      <c r="AN8" s="6">
+        <v>4</v>
+      </c>
+      <c r="AO8" s="6">
+        <v>4</v>
+      </c>
+      <c r="AP8" s="2">
+        <v>4</v>
+      </c>
+      <c r="AQ8" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AS8" s="4">
         <v>6</v>
       </c>
-      <c r="AT8" s="3"/>
-      <c r="AU8" s="16"/>
-      <c r="AV8" s="16"/>
-      <c r="AW8" s="3"/>
-      <c r="AX8" s="3"/>
-      <c r="AY8" s="3"/>
-      <c r="AZ8" s="3"/>
-      <c r="BB8" s="14">
+      <c r="AT8" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="AU8" s="6">
+        <v>5</v>
+      </c>
+      <c r="AV8" s="6">
         <v>6</v>
       </c>
-      <c r="BC8" s="3"/>
-      <c r="BD8" s="3"/>
-      <c r="BF8" s="14">
+      <c r="AW8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AX8" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AY8" s="2">
+        <v>320</v>
+      </c>
+      <c r="AZ8" s="2">
+        <v>20</v>
+      </c>
+      <c r="BB8" s="4">
         <v>6</v>
       </c>
-      <c r="BG8" s="3"/>
-      <c r="BH8" s="3"/>
-      <c r="BI8" s="3"/>
-      <c r="BJ8" s="16"/>
+      <c r="BC8" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="BD8" s="2">
+        <v>49317531</v>
+      </c>
+      <c r="BF8" s="4">
+        <v>6</v>
+      </c>
+      <c r="BG8" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="BH8" s="2">
+        <v>124</v>
+      </c>
+      <c r="BI8" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="BJ8" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
+      <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="4">
         <v>7</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="2">
         <v>1200</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="2">
         <v>38349117298</v>
       </c>
-      <c r="L9" s="15">
+      <c r="L9" s="5">
         <v>402863845</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="M9" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="N9" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="O9" s="3">
+      <c r="O9" s="2">
         <v>38349775717</v>
       </c>
-      <c r="P9" s="3" t="s">
+      <c r="P9" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="R9" s="14">
+      <c r="R9" s="4">
         <v>7</v>
       </c>
-      <c r="S9" s="3" t="s">
+      <c r="S9" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="T9" s="3" t="s">
+      <c r="T9" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="U9" s="16">
-        <v>2</v>
-      </c>
-      <c r="V9" s="17">
+      <c r="U9" s="6">
+        <v>2</v>
+      </c>
+      <c r="V9" s="7">
         <v>557467478</v>
       </c>
-      <c r="W9" s="16">
+      <c r="W9" s="6">
         <v>3</v>
       </c>
-      <c r="X9" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z9" s="14">
+      <c r="X9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="4">
         <v>7</v>
       </c>
-      <c r="AA9" s="16">
+      <c r="AA9" s="6">
         <v>3</v>
       </c>
-      <c r="AB9" s="16">
+      <c r="AB9" s="6">
         <v>3</v>
       </c>
-      <c r="AC9" s="16">
+      <c r="AC9" s="6">
         <v>6</v>
       </c>
-      <c r="AD9" s="3" t="s">
+      <c r="AD9" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AF9" s="14">
+      <c r="AF9" s="4">
         <v>7</v>
       </c>
-      <c r="AG9" s="3" t="s">
+      <c r="AG9" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="AH9" s="3" t="s">
+      <c r="AH9" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AI9" s="3" t="s">
+      <c r="AI9" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="AJ9" s="3">
+      <c r="AJ9" s="2">
         <v>7</v>
       </c>
-      <c r="AL9" s="14">
+      <c r="AL9" s="4">
         <v>7</v>
       </c>
-      <c r="AM9" s="16"/>
-      <c r="AN9" s="16"/>
-      <c r="AO9" s="16"/>
-      <c r="AP9" s="3"/>
-      <c r="AQ9" s="3"/>
-      <c r="AS9" s="14">
+      <c r="AM9" s="7">
+        <v>402863845</v>
+      </c>
+      <c r="AN9" s="6">
+        <v>3</v>
+      </c>
+      <c r="AO9" s="6">
+        <v>6</v>
+      </c>
+      <c r="AP9" s="2">
         <v>7</v>
       </c>
-      <c r="AT9" s="3"/>
-      <c r="AU9" s="16"/>
-      <c r="AV9" s="16"/>
-      <c r="AW9" s="3"/>
-      <c r="AX9" s="3"/>
-      <c r="AY9" s="3"/>
-      <c r="AZ9" s="3"/>
-      <c r="BB9" s="14">
+      <c r="AQ9" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AS9" s="4">
         <v>7</v>
       </c>
-      <c r="BC9" s="3"/>
-      <c r="BD9" s="3"/>
-      <c r="BF9" s="14">
+      <c r="AT9" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="AU9" s="6">
+        <v>6</v>
+      </c>
+      <c r="AV9" s="6">
+        <v>1</v>
+      </c>
+      <c r="AW9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AX9" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AY9" s="2">
+        <v>1200</v>
+      </c>
+      <c r="AZ9" s="2">
+        <v>50</v>
+      </c>
+      <c r="BB9" s="4">
         <v>7</v>
       </c>
-      <c r="BG9" s="3"/>
-      <c r="BH9" s="3"/>
-      <c r="BI9" s="3"/>
-      <c r="BJ9" s="16"/>
+      <c r="BC9" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="BD9" s="2">
+        <v>49321427</v>
+      </c>
+      <c r="BF9" s="4">
+        <v>7</v>
+      </c>
+      <c r="BG9" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="BH9" s="2">
+        <v>753</v>
+      </c>
+      <c r="BI9" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="BJ9" s="6">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A10" s="14">
+      <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="4">
         <v>8</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="2">
         <v>500</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="2">
         <v>38349289592</v>
       </c>
-      <c r="L10" s="15">
+      <c r="L10" s="5">
         <v>412480259</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="M10" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="N10" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="2">
         <v>38349261991</v>
       </c>
-      <c r="P10" s="3" t="s">
+      <c r="P10" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="R10" s="14">
+      <c r="R10" s="4">
         <v>8</v>
       </c>
-      <c r="S10" s="3" t="s">
+      <c r="S10" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="T10" s="3" t="s">
+      <c r="T10" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="U10" s="16">
+      <c r="U10" s="6">
         <v>8</v>
       </c>
-      <c r="V10" s="17">
+      <c r="V10" s="7">
         <v>437644808</v>
       </c>
-      <c r="W10" s="16">
+      <c r="W10" s="6">
         <v>7</v>
       </c>
-      <c r="X10" s="3" t="b">
+      <c r="X10" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="Z10" s="14">
+      <c r="Z10" s="4">
         <v>8</v>
       </c>
-      <c r="AA10" s="16">
+      <c r="AA10" s="6">
         <v>7</v>
       </c>
-      <c r="AB10" s="16">
+      <c r="AB10" s="6">
         <v>3</v>
       </c>
-      <c r="AC10" s="16">
-        <v>2</v>
-      </c>
-      <c r="AD10" s="3" t="s">
+      <c r="AC10" s="6">
+        <v>2</v>
+      </c>
+      <c r="AD10" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AF10" s="14">
+      <c r="AF10" s="4">
         <v>8</v>
       </c>
-      <c r="AG10" s="3" t="s">
+      <c r="AG10" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AH10" s="3" t="s">
+      <c r="AH10" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="AI10" s="3" t="s">
+      <c r="AI10" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="AJ10" s="3">
+      <c r="AJ10" s="2">
         <v>12</v>
       </c>
-      <c r="AL10" s="14">
+      <c r="AL10" s="4">
         <v>8</v>
       </c>
-      <c r="AM10" s="16"/>
-      <c r="AN10" s="16"/>
-      <c r="AO10" s="16"/>
-      <c r="AP10" s="3"/>
-      <c r="AQ10" s="3"/>
-      <c r="AS10" s="14">
+      <c r="AM10" s="7">
+        <v>173157921</v>
+      </c>
+      <c r="AN10" s="6">
+        <v>3</v>
+      </c>
+      <c r="AO10" s="6">
+        <v>2</v>
+      </c>
+      <c r="AP10" s="2">
+        <v>12</v>
+      </c>
+      <c r="AQ10" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AS10" s="4">
         <v>8</v>
       </c>
-      <c r="AT10" s="3"/>
-      <c r="AU10" s="16"/>
-      <c r="AV10" s="16"/>
-      <c r="AW10" s="3"/>
-      <c r="AX10" s="3"/>
-      <c r="AY10" s="3"/>
-      <c r="AZ10" s="3"/>
-      <c r="BB10" s="14">
+      <c r="AT10" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="AU10" s="6">
         <v>8</v>
       </c>
-      <c r="BC10" s="3"/>
-      <c r="BD10" s="3"/>
-      <c r="BF10" s="14">
+      <c r="AV10" s="6">
+        <v>4</v>
+      </c>
+      <c r="AW10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX10" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="AY10" s="2">
+        <v>4500</v>
+      </c>
+      <c r="AZ10" s="2">
+        <v>90</v>
+      </c>
+      <c r="BB10" s="4">
         <v>8</v>
       </c>
-      <c r="BG10" s="3"/>
-      <c r="BH10" s="3"/>
-      <c r="BI10" s="3"/>
-      <c r="BJ10" s="16"/>
+      <c r="BC10" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="BD10" s="2">
+        <v>49896860</v>
+      </c>
+      <c r="BF10" s="4">
+        <v>8</v>
+      </c>
+      <c r="BG10" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="BH10" s="2">
+        <v>2357</v>
+      </c>
+      <c r="BI10" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="BJ10" s="6">
+        <v>4</v>
+      </c>
     </row>
     <row r="11" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A11" s="14">
+      <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="4">
         <v>9</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="2">
         <v>800</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="2">
         <v>38349729998</v>
       </c>
-      <c r="L11" s="15">
+      <c r="L11" s="5">
         <v>268247245</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="M11" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="N11" s="3" t="s">
+      <c r="N11" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O11" s="3">
+      <c r="O11" s="2">
         <v>38349741071</v>
       </c>
-      <c r="P11" s="3" t="s">
+      <c r="P11" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="R11" s="14">
+      <c r="R11" s="4">
         <v>9</v>
       </c>
-      <c r="S11" s="3" t="s">
+      <c r="S11" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="T11" s="3" t="s">
+      <c r="T11" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="U11" s="16">
-        <v>2</v>
-      </c>
-      <c r="V11" s="17">
+      <c r="U11" s="6">
+        <v>2</v>
+      </c>
+      <c r="V11" s="7">
         <v>329205740</v>
       </c>
-      <c r="W11" s="16">
+      <c r="W11" s="6">
         <v>8</v>
       </c>
-      <c r="X11" s="3" t="b">
+      <c r="X11" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="Z11" s="14">
+      <c r="Z11" s="4">
         <v>9</v>
       </c>
-      <c r="AA11" s="16">
+      <c r="AA11" s="6">
         <v>8</v>
       </c>
-      <c r="AB11" s="16">
+      <c r="AB11" s="6">
         <v>10</v>
       </c>
-      <c r="AC11" s="16">
-        <v>2</v>
-      </c>
-      <c r="AD11" s="3" t="s">
+      <c r="AC11" s="6">
+        <v>2</v>
+      </c>
+      <c r="AD11" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AF11" s="14">
+      <c r="AF11" s="4">
         <v>9</v>
       </c>
-      <c r="AG11" s="3" t="s">
+      <c r="AG11" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="AH11" s="3" t="s">
+      <c r="AH11" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="AI11" s="3" t="s">
+      <c r="AI11" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="AJ11" s="3">
+      <c r="AJ11" s="2">
         <v>5</v>
       </c>
-      <c r="AL11" s="14">
+      <c r="AL11" s="4">
         <v>9</v>
       </c>
-      <c r="AM11" s="16"/>
-      <c r="AN11" s="16"/>
-      <c r="AO11" s="16"/>
-      <c r="AP11" s="3"/>
-      <c r="AQ11" s="3"/>
-      <c r="AS11" s="14">
+      <c r="AM11" s="7">
+        <v>454035610</v>
+      </c>
+      <c r="AN11" s="6">
+        <v>10</v>
+      </c>
+      <c r="AO11" s="6">
+        <v>2</v>
+      </c>
+      <c r="AP11" s="2">
+        <v>5</v>
+      </c>
+      <c r="AQ11" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AS11" s="4">
         <v>9</v>
       </c>
-      <c r="AT11" s="3"/>
-      <c r="AU11" s="16"/>
-      <c r="AV11" s="16"/>
-      <c r="AW11" s="3"/>
-      <c r="AX11" s="3"/>
-      <c r="AY11" s="3"/>
-      <c r="AZ11" s="3"/>
-      <c r="BB11" s="14">
+      <c r="AT11" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="AU11" s="6">
+        <v>10</v>
+      </c>
+      <c r="AV11" s="6">
+        <v>1</v>
+      </c>
+      <c r="AW11" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="AX11" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="AY11" s="2">
+        <v>250</v>
+      </c>
+      <c r="AZ11" s="2">
+        <v>10</v>
+      </c>
+      <c r="BB11" s="4">
         <v>9</v>
       </c>
-      <c r="BC11" s="3"/>
-      <c r="BD11" s="3"/>
-      <c r="BF11" s="14">
+      <c r="BC11" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="BD11" s="2">
+        <v>49301091</v>
+      </c>
+      <c r="BF11" s="4">
         <v>9</v>
       </c>
-      <c r="BG11" s="3"/>
-      <c r="BH11" s="3"/>
-      <c r="BI11" s="3"/>
-      <c r="BJ11" s="16"/>
+      <c r="BG11" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="BH11" s="2">
+        <v>2354</v>
+      </c>
+      <c r="BI11" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="BJ11" s="6">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="A12" s="14">
+      <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="4">
         <v>10</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="2">
         <v>411</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="2">
         <v>38349148062</v>
       </c>
-      <c r="L12" s="15">
+      <c r="L12" s="5">
         <v>953324644</v>
       </c>
-      <c r="M12" s="3" t="s">
+      <c r="M12" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="N12" s="3" t="s">
+      <c r="N12" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="O12" s="3">
+      <c r="O12" s="2">
         <v>38349987526</v>
       </c>
-      <c r="P12" s="3" t="s">
+      <c r="P12" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="R12" s="14">
+      <c r="R12" s="4">
         <v>10</v>
       </c>
-      <c r="S12" s="3" t="s">
+      <c r="S12" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="T12" s="3" t="s">
+      <c r="T12" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="U12" s="16">
+      <c r="U12" s="6">
         <v>8</v>
       </c>
-      <c r="V12" s="17">
+      <c r="V12" s="7">
         <v>173157921</v>
       </c>
-      <c r="W12" s="16">
+      <c r="W12" s="6">
         <v>10</v>
       </c>
-      <c r="X12" s="3" t="b">
+      <c r="X12" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="Z12" s="14">
+      <c r="Z12" s="4">
         <v>10</v>
       </c>
-      <c r="AA12" s="16">
+      <c r="AA12" s="6">
         <v>10</v>
       </c>
-      <c r="AB12" s="16">
-        <v>4</v>
-      </c>
-      <c r="AC12" s="16">
-        <v>1</v>
-      </c>
-      <c r="AD12" s="3" t="s">
+      <c r="AB12" s="6">
+        <v>4</v>
+      </c>
+      <c r="AC12" s="6">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AF12" s="14">
+      <c r="AF12" s="4">
         <v>10</v>
       </c>
-      <c r="AG12" s="3" t="s">
+      <c r="AG12" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="AH12" s="3" t="s">
+      <c r="AH12" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="AI12" s="3" t="s">
+      <c r="AI12" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="AJ12" s="3">
+      <c r="AJ12" s="2">
         <v>9</v>
       </c>
-      <c r="AL12" s="14">
+      <c r="AL12" s="4">
         <v>10</v>
       </c>
-      <c r="AM12" s="16"/>
-      <c r="AN12" s="16"/>
-      <c r="AO12" s="16"/>
-      <c r="AP12" s="3"/>
-      <c r="AQ12" s="3"/>
-      <c r="AS12" s="14">
+      <c r="AM12" s="7">
+        <v>268247245</v>
+      </c>
+      <c r="AN12" s="6">
+        <v>4</v>
+      </c>
+      <c r="AO12" s="6">
+        <v>1</v>
+      </c>
+      <c r="AP12" s="2">
+        <v>9</v>
+      </c>
+      <c r="AQ12" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AS12" s="4">
         <v>10</v>
       </c>
-      <c r="AT12" s="3"/>
-      <c r="AU12" s="16"/>
-      <c r="AV12" s="16"/>
-      <c r="AW12" s="3"/>
-      <c r="AX12" s="3"/>
-      <c r="AY12" s="3"/>
-      <c r="AZ12" s="3"/>
-      <c r="BB12" s="14">
+      <c r="AT12" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="AU12" s="6">
+        <v>9</v>
+      </c>
+      <c r="AV12" s="6">
+        <v>6</v>
+      </c>
+      <c r="AW12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX12" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AY12" s="2">
+        <v>3500</v>
+      </c>
+      <c r="AZ12" s="2">
+        <v>25</v>
+      </c>
+      <c r="BB12" s="4">
         <v>10</v>
       </c>
-      <c r="BC12" s="3"/>
-      <c r="BD12" s="3"/>
-      <c r="BF12" s="14">
+      <c r="BC12" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="BD12" s="2">
+        <v>49623647</v>
+      </c>
+      <c r="BF12" s="4">
         <v>10</v>
       </c>
-      <c r="BG12" s="3"/>
-      <c r="BH12" s="3"/>
-      <c r="BI12" s="3"/>
-      <c r="BJ12" s="16"/>
+      <c r="BG12" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="BH12" s="2">
+        <v>1421</v>
+      </c>
+      <c r="BI12" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="BJ12" s="6">
+        <v>9</v>
+      </c>
     </row>
     <row r="16" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="13" t="s">
+      <c r="D16" s="8"/>
+      <c r="E16" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="F16" s="13"/>
+      <c r="F16" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="L1:P1"/>
     <mergeCell ref="R1:X1"/>
     <mergeCell ref="Z1:AD1"/>
     <mergeCell ref="BF1:BJ1"/>
@@ -2477,7 +2951,13 @@
     <mergeCell ref="AL1:AQ1"/>
     <mergeCell ref="AS1:AZ1"/>
     <mergeCell ref="AF1:AJ1"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="L1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>